--- a/control asesorias vs tematicas.xlsx
+++ b/control asesorias vs tematicas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Universidad-David\X semestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\funnYD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="195">
   <si>
     <t>FASES</t>
   </si>
@@ -606,6 +606,12 @@
   <si>
     <t>erikananezp@gmail.com</t>
   </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
@@ -913,6 +919,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,7 +951,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1262,10 +1268,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1274,22 +1280,26 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
@@ -1299,8 +1309,8 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
@@ -1310,43 +1320,49 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="22">
+      <c r="A9" s="23">
         <v>2</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -1355,90 +1371,106 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>3</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -1447,90 +1479,106 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="22">
+      <c r="A25" s="23">
         <v>4</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="26" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -1539,123 +1587,145 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="39" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="22" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="22">
+      <c r="A36" s="23">
         <v>5</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="26" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -1664,57 +1734,67 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="22">
+      <c r="A41" s="23">
         <v>6</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="10" t="s">
@@ -1723,46 +1803,54 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="22">
+      <c r="A45" s="23">
         <v>7</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="26" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="10" t="s">
@@ -1771,112 +1859,132 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
       <c r="C52" s="12" t="s">
         <v>62</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="G52" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="G54" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="22">
+      <c r="A55" s="23">
         <v>8</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="26" t="s">
         <v>65</v>
       </c>
       <c r="C55" s="10" t="s">
@@ -1885,68 +1993,80 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="G55" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="G56" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="G57" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
+      <c r="G58" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
+      <c r="G59" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="10" t="s">
         <v>71</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
+      <c r="G60" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="22">
+      <c r="A61" s="23">
         <v>9</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="26" t="s">
         <v>72</v>
       </c>
       <c r="C61" s="10" t="s">
@@ -1955,57 +2075,67 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+      <c r="G61" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+      <c r="G62" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+      <c r="G63" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
+      <c r="G65" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="22">
+      <c r="A66" s="23">
         <v>10</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C66" s="10" t="s">
@@ -2014,68 +2144,80 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="G66" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="G67" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="23"/>
-      <c r="B68" s="23"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="G68" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
+      <c r="G69" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="10" t="s">
         <v>83</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
+      <c r="G70" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="10" t="s">
         <v>84</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
+      <c r="G71" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="22">
+      <c r="A72" s="23">
         <v>11</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="26" t="s">
         <v>85</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -2084,101 +2226,119 @@
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
+      <c r="G72" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
+      <c r="G73" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="12" t="s">
         <v>88</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
+      <c r="G74" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
+      <c r="G75" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
+      <c r="G76" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
       <c r="C77" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
+      <c r="G77" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
       <c r="C78" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
+      <c r="G78" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
       <c r="C79" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
+      <c r="G79" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
       <c r="C80" s="10" t="s">
         <v>94</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
+      <c r="G80" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="22">
+      <c r="A81" s="23">
         <v>12</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="26" t="s">
         <v>95</v>
       </c>
       <c r="C81" s="10" t="s">
@@ -2187,46 +2347,54 @@
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
+      <c r="G81" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="23"/>
-      <c r="B82" s="23"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
       <c r="C82" s="12" t="s">
         <v>97</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
+      <c r="G82" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="23"/>
-      <c r="B83" s="23"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
       <c r="C83" s="12" t="s">
         <v>98</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
+      <c r="G83" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24"/>
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="12" t="s">
         <v>99</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
+      <c r="G84" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="22">
+      <c r="A85" s="23">
         <v>13</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="26" t="s">
         <v>100</v>
       </c>
       <c r="C85" s="12" t="s">
@@ -2235,29 +2403,35 @@
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
+      <c r="G85" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="23"/>
-      <c r="B86" s="23"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="12" t="s">
         <v>102</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
+      <c r="G86" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
       <c r="C87" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
+      <c r="G87" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="88" spans="1:7">
       <c r="B88" s="19"/>
@@ -5000,17 +5174,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A72:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B72:B80"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="B25:B35"/>
-    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="A45:A54"/>
     <mergeCell ref="A55:A60"/>
     <mergeCell ref="A61:A65"/>
     <mergeCell ref="A66:A71"/>
@@ -5021,11 +5189,17 @@
     <mergeCell ref="B66:B71"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="B25:B35"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="A72:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B72:B80"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33426,155 +33600,155 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="23.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:10" ht="23.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="20"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="20"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="38"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="20"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
       <c r="J9" s="20"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="20"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="10">
